--- a/src/test/resources/ninjaCRM.xlsx
+++ b/src/test/resources/ninjaCRM.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{83A600C0-14F3-4E5E-AF58-41F9573106B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{40D3F919-A0A4-4912-97F3-22C010E22A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{1CFC7333-53AF-4A88-8DA3-8719991583FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1CFC7333-53AF-4A88-8DA3-8719991583FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,26 +15,17 @@
     <sheet name="createProduct" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I8"/>
+  <oleSize ref="A1:E13"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="108">
   <si>
     <t>TC_NO</t>
   </si>
@@ -99,9 +90,6 @@
     <t>CreateCampaignWith_MandatoryFields</t>
   </si>
   <si>
-    <t>Mandatory Fields</t>
-  </si>
-  <si>
     <t>STATUS</t>
   </si>
   <si>
@@ -222,21 +210,12 @@
     <t>CreateCampaignWith_ExpectedCloseDate</t>
   </si>
   <si>
-    <t>CampaignWithStatus</t>
-  </si>
-  <si>
-    <t>CampaignWithExpectedClosedate</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
     <t>InActive</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>ALERT_MESSAGE</t>
   </si>
   <si>
@@ -255,15 +234,6 @@
     <t>CreateContact_With_MandatoryFields</t>
   </si>
   <si>
-    <t>Qspiders</t>
-  </si>
-  <si>
-    <t>webinar</t>
-  </si>
-  <si>
-    <t>Counseller</t>
-  </si>
-  <si>
     <t>TARGET_AUDIENCE</t>
   </si>
   <si>
@@ -273,39 +243,15 @@
     <t>Createcampaign_CompleteTest</t>
   </si>
   <si>
-    <t>CreateCampaignCompleteTest</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Students</t>
-  </si>
-  <si>
-    <t>Entire Test</t>
-  </si>
-  <si>
     <t>CreateContact_With_Department</t>
   </si>
   <si>
-    <t>Department Webinar</t>
-  </si>
-  <si>
-    <t>Trainer</t>
-  </si>
-  <si>
     <t>DEPARTMENT</t>
   </si>
   <si>
-    <t>Training department</t>
-  </si>
-  <si>
     <t>CreateContact_With_Email</t>
   </si>
   <si>
-    <t>Email Webinar</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -315,15 +261,6 @@
     <t>CAMPAIGNALERT_MESSAGE</t>
   </si>
   <si>
-    <t>CC1</t>
-  </si>
-  <si>
-    <t>CC2</t>
-  </si>
-  <si>
-    <t>CC3</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -333,19 +270,85 @@
     <t>SITE_TITLE</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>rmgyantra</t>
+  </si>
+  <si>
+    <t>rmgy@9999</t>
+  </si>
+  <si>
+    <t>CC_CampaignWithStatus</t>
+  </si>
+  <si>
+    <t>CC_CampaignWithExpectedClosedate</t>
+  </si>
+  <si>
+    <t>CC_CreateCampaignCompleteTest</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Students and Parents</t>
+  </si>
+  <si>
+    <t>Complete Test</t>
+  </si>
+  <si>
+    <t>HelloCampaign</t>
+  </si>
+  <si>
+    <t>Contractor</t>
+  </si>
+  <si>
+    <t>IT department</t>
+  </si>
+  <si>
+    <t>Network department</t>
+  </si>
+  <si>
+    <t>webinar 1</t>
+  </si>
+  <si>
+    <t>Department Webinar 1</t>
+  </si>
+  <si>
+    <t>Email Webinar 1</t>
+  </si>
+  <si>
+    <t>Qspiders 2</t>
+  </si>
+  <si>
+    <t>Trainer 2</t>
+  </si>
+  <si>
+    <t>Prime</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>whatsapp</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Select Campaign</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>rmgyantra</t>
-  </si>
-  <si>
-    <t>rmgy@9999</t>
   </si>
 </sst>
 </file>
@@ -870,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF5D996-F835-46B5-86F5-AB52766959FC}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,22 +902,22 @@
         <v>13</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -922,31 +925,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="I2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -963,25 +966,25 @@
         <v>13</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -989,34 +992,34 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I5" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="J5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1033,28 +1036,28 @@
         <v>13</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1062,37 +1065,37 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="I8" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="L8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1107,7 +1110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1894D317-313C-4658-904F-8BDE75D8BB4F}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1119,50 +1122,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1184,7 +1187,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1212,7 +1215,7 @@
         <v>13</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -1223,13 +1226,13 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -1243,13 +1246,13 @@
         <v>19</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -1257,19 +1260,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="D5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" t="s">
         <v>64</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -1283,13 +1286,13 @@
         <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -1297,19 +1300,19 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="F8" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1323,19 +1326,19 @@
         <v>19</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1343,25 +1346,25 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" t="s">
         <v>64</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1373,7 +1376,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E50A7073-65F3-4672-BC7F-5AAC21C5DCD8}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -1389,25 +1392,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="G1" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1415,13 +1418,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>6</v>
@@ -1430,30 +1433,30 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>26</v>
-      </c>
       <c r="G4" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1461,45 +1464,45 @@
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
         <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
@@ -1507,27 +1510,27 @@
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
         <v>39</v>
       </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
       <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>10</v>
@@ -1538,18 +1541,18 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1557,24 +1560,24 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
         <v>47</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -1582,30 +1585,30 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1613,13 +1616,13 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
         <v>53</v>
       </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
       <c r="D20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>9</v>
@@ -1627,19 +1630,19 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1647,13 +1650,13 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
         <v>56</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>57</v>
-      </c>
-      <c r="D23" t="s">
-        <v>58</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>6</v>
@@ -1661,7 +1664,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>10</v>
@@ -1672,7 +1675,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/ninjaCRM.xlsx
+++ b/src/test/resources/ninjaCRM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{40D3F919-A0A4-4912-97F3-22C010E22A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{75F8FC70-AE53-4EA3-A4C6-FC00241501A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{1CFC7333-53AF-4A88-8DA3-8719991583FB}"/>
   </bookViews>
@@ -15,7 +15,7 @@
     <sheet name="createProduct" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:E13"/>
+  <oleSize ref="A1:E23"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="109">
   <si>
     <t>TC_NO</t>
   </si>
@@ -282,24 +282,9 @@
     <t>rmgy@9999</t>
   </si>
   <si>
-    <t>CC_CampaignWithStatus</t>
-  </si>
-  <si>
-    <t>CC_CampaignWithExpectedClosedate</t>
-  </si>
-  <si>
-    <t>CC_CreateCampaignCompleteTest</t>
-  </si>
-  <si>
     <t>Progress</t>
   </si>
   <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
@@ -309,9 +294,6 @@
     <t>Complete Test</t>
   </si>
   <si>
-    <t>HelloCampaign</t>
-  </si>
-  <si>
     <t>Contractor</t>
   </si>
   <si>
@@ -336,19 +318,40 @@
     <t>Trainer 2</t>
   </si>
   <si>
-    <t>Prime</t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>whatsapp</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
     <t>Select Campaign</t>
+  </si>
+  <si>
+    <t>HiCampaign</t>
+  </si>
+  <si>
+    <t>BB_CampaignWithStatus</t>
+  </si>
+  <si>
+    <t>BB_CampaignWithExpectedClosedate</t>
+  </si>
+  <si>
+    <t>BB_CreateCampaignCompleteTest</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1Prime</t>
+  </si>
+  <si>
+    <t>1Youtube</t>
+  </si>
+  <si>
+    <t>1whatsapp</t>
   </si>
 </sst>
 </file>
@@ -873,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF5D996-F835-46B5-86F5-AB52766959FC}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -928,7 +931,7 @@
         <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -937,16 +940,16 @@
         <v>64</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" t="s">
         <v>98</v>
-      </c>
-      <c r="H2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I2" t="s">
-        <v>107</v>
       </c>
       <c r="J2" t="s">
         <v>64</v>
@@ -995,7 +998,7 @@
         <v>72</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>78</v>
@@ -1004,19 +1007,19 @@
         <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" t="s">
         <v>96</v>
       </c>
-      <c r="I5" t="s">
-        <v>102</v>
-      </c>
       <c r="J5" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s">
         <v>64</v>
@@ -1068,31 +1071,31 @@
         <v>74</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
         <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>76</v>
       </c>
       <c r="K8" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s">
         <v>64</v>
@@ -1187,7 +1190,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1226,10 +1229,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
         <v>64</v>
@@ -1263,13 +1266,13 @@
         <v>59</v>
       </c>
       <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
         <v>85</v>
       </c>
-      <c r="D5" t="s">
-        <v>88</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F5" t="s">
         <v>64</v>
@@ -1303,13 +1306,13 @@
         <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="D8" t="s">
         <v>62</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F8" t="s">
         <v>64</v>
@@ -1349,19 +1352,19 @@
         <v>71</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D11" t="s">
         <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H11" t="s">
         <v>64</v>
